--- a/application/plugins/Reports_client_expired_debts/views/Reports_client_expired_debts.xlsx
+++ b/application/plugins/Reports_client_expired_debts/views/Reports_client_expired_debts.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1356" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>{$v-&gt;rows[]-&gt;label}</t>
   </si>
@@ -110,18 +110,32 @@
   </si>
   <si>
     <t>{$v-&gt;input-&gt;their_debts}</t>
+  </si>
+  <si>
+    <t>Конечная дата</t>
+  </si>
+  <si>
+    <t>{$v-&gt;input-&gt;fdate}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,34 +469,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -491,62 +505,68 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,7 +685,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -700,7 +720,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -909,259 +929,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
     <col min="4" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="9" width="6.5703125" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="9" width="6.5546875" customWidth="1"/>
+    <col min="10" max="10" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3" spans="2:10" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="2:10" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+    </row>
+    <row r="3" spans="2:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="2:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="2:10" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="2:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="2:10" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="2:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="2:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="2:10" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="2:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="2:10" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="2:10" s="21" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="2:10" s="20" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="27" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28" t="s">
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="10" t="s">
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J14" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
+    <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D14">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:E13">
+  <conditionalFormatting sqref="D14:E14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
